--- a/testdata/LoginData.xlsx
+++ b/testdata/LoginData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>User Name</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>anitha123</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -111,7 +117,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -122,7 +128,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -133,7 +139,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -144,7 +150,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
